--- a/result/TrailATR/summary_USDJPY_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_USDJPY_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,10 +994,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2024</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>-12.238</v>
+        <v>-11.76299999999881</v>
       </c>
       <c r="L9" t="n">
-        <v>-15.48900000000005</v>
+        <v>-10.20899999999942</v>
       </c>
       <c r="M9" t="n">
-        <v>3574</v>
+        <v>3037</v>
       </c>
       <c r="N9" t="n">
-        <v>3.251000000000047</v>
+        <v>-1.553999999999391</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.731000000000023</v>
+        <v>-4.137</v>
       </c>
       <c r="P9" t="n">
-        <v>7.744</v>
+        <v>6.516999999999996</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0009096250699496495</v>
+        <v>-0.0005116891669408597</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3923096738454873</v>
+        <v>0.4086932816879713</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.04699999999999704</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2129266927811975</v>
+        <v>0.1787948633519921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B10" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,54 +1082,54 @@
         <v>2024</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="I10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J10" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="K10" t="n">
-        <v>-12.54499999999976</v>
+        <v>-12.238</v>
       </c>
       <c r="L10" t="n">
-        <v>-11.79999999999993</v>
+        <v>-15.48900000000005</v>
       </c>
       <c r="M10" t="n">
-        <v>2981</v>
+        <v>3574</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.744999999999834</v>
+        <v>3.251000000000047</v>
       </c>
       <c r="O10" t="n">
-        <v>-3.772999999999996</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P10" t="n">
-        <v>5.759999999999991</v>
+        <v>7.744</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0002499161355249359</v>
+        <v>0.0009096250699496495</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4118156127409147</v>
+        <v>0.3923096738454873</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0560000000000116</v>
+        <v>-0.04699999999999704</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1677289500167729</v>
+        <v>0.2129266927811975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2024</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J11" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="K11" t="n">
-        <v>-13.43399999999963</v>
+        <v>-12.54499999999976</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.827999999999832</v>
+        <v>-11.79999999999993</v>
       </c>
       <c r="M11" t="n">
-        <v>3148</v>
+        <v>2981</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.605999999999796</v>
+        <v>-0.744999999999834</v>
       </c>
       <c r="O11" t="n">
-        <v>-2.593999999999994</v>
+        <v>-3.772999999999996</v>
       </c>
       <c r="P11" t="n">
-        <v>4.24799999999999</v>
+        <v>5.759999999999991</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.001463151207115564</v>
+        <v>-0.0002499161355249359</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4058521830821662</v>
+        <v>0.4118156127409147</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.05150000000000432</v>
+        <v>-0.0560000000000116</v>
       </c>
       <c r="T11" t="n">
-        <v>0.312579415501906</v>
+        <v>0.1677289500167729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,54 +1214,54 @@
         <v>2024</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K12" t="n">
-        <v>-16.95300000000051</v>
+        <v>-13.43399999999963</v>
       </c>
       <c r="L12" t="n">
-        <v>-16.86100000000023</v>
+        <v>-8.827999999999832</v>
       </c>
       <c r="M12" t="n">
-        <v>4105</v>
+        <v>3148</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.09200000000028297</v>
+        <v>-4.605999999999796</v>
       </c>
       <c r="O12" t="n">
-        <v>-2.731000000000023</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="P12" t="n">
-        <v>6.054000000000002</v>
+        <v>4.24799999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>-2.241169305731619e-05</v>
+        <v>-0.001463151207115564</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3590195458930926</v>
+        <v>0.4058521830821662</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.04599999999999227</v>
+        <v>-0.05150000000000432</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2168087697929355</v>
+        <v>0.312579415501906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1280,54 +1280,54 @@
         <v>2024</v>
       </c>
       <c r="G13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I13" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J13" t="n">
         <v>0.4</v>
       </c>
       <c r="K13" t="n">
-        <v>-18.06499999999909</v>
+        <v>-16.95300000000051</v>
       </c>
       <c r="L13" t="n">
-        <v>-15.32899999999945</v>
+        <v>-16.86100000000023</v>
       </c>
       <c r="M13" t="n">
-        <v>3316</v>
+        <v>4105</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.735999999999635</v>
+        <v>-0.09200000000028297</v>
       </c>
       <c r="O13" t="n">
         <v>-2.731000000000023</v>
       </c>
       <c r="P13" t="n">
-        <v>7.894999999999982</v>
+        <v>6.054000000000002</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0008250904704462107</v>
+        <v>-2.241169305731619e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3895209510882471</v>
+        <v>0.3590195458930926</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.04500000000000171</v>
+        <v>-0.04599999999999227</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2110977080820265</v>
+        <v>0.2168087697929355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,54 +1346,54 @@
         <v>2024</v>
       </c>
       <c r="G14" t="n">
+        <v>45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>95</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40</v>
-      </c>
       <c r="J14" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>-20.20500000000058</v>
+        <v>-18.06499999999909</v>
       </c>
       <c r="L14" t="n">
-        <v>-16.30200000000039</v>
+        <v>-15.32899999999945</v>
       </c>
       <c r="M14" t="n">
-        <v>4835</v>
+        <v>3316</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.903000000000191</v>
+        <v>-2.735999999999635</v>
       </c>
       <c r="O14" t="n">
         <v>-2.731000000000023</v>
       </c>
       <c r="P14" t="n">
-        <v>6.977000000000004</v>
+        <v>7.894999999999982</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.000807238883143783</v>
+        <v>-0.0008250904704462107</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3481972982373959</v>
+        <v>0.3895209510882471</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.04400000000001114</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2275077559462254</v>
+        <v>0.2110977080820265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1412,54 +1412,54 @@
         <v>2024</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="K15" t="n">
-        <v>-22.42300000000063</v>
+        <v>-20.20500000000058</v>
       </c>
       <c r="L15" t="n">
-        <v>-14.11700000000035</v>
+        <v>-16.30200000000039</v>
       </c>
       <c r="M15" t="n">
-        <v>2828</v>
+        <v>4835</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.306000000000282</v>
+        <v>-3.903000000000191</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.863</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P15" t="n">
-        <v>5.575999999999993</v>
+        <v>6.977000000000004</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.002937057991513537</v>
+        <v>-0.000807238883143783</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4208771834333235</v>
+        <v>0.3481972982373959</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.0590000000000046</v>
+        <v>-0.04400000000001114</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1661951909476662</v>
+        <v>0.2275077559462254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1478,54 +1478,54 @@
         <v>2024</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>-31.91699999999847</v>
+        <v>-22.42300000000063</v>
       </c>
       <c r="L16" t="n">
-        <v>-24.18099999999924</v>
+        <v>-14.11700000000035</v>
       </c>
       <c r="M16" t="n">
-        <v>3705</v>
+        <v>2828</v>
       </c>
       <c r="N16" t="n">
-        <v>-7.735999999999223</v>
+        <v>-8.306000000000282</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.016999999999996</v>
+        <v>-3.863</v>
       </c>
       <c r="P16" t="n">
-        <v>3.976999999999975</v>
+        <v>5.575999999999993</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.002087989203778468</v>
+        <v>-0.002937057991513537</v>
       </c>
       <c r="R16" t="n">
-        <v>0.392588270523505</v>
+        <v>0.4208771834333235</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.0549999999999784</v>
+        <v>-0.0590000000000046</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2472334682860999</v>
+        <v>0.1661951909476662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1544,54 +1544,54 @@
         <v>2024</v>
       </c>
       <c r="G17" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="K17" t="n">
-        <v>-34.52300000000119</v>
+        <v>-30.40599999999961</v>
       </c>
       <c r="L17" t="n">
-        <v>-21.19300000000065</v>
+        <v>-18.37799999999984</v>
       </c>
       <c r="M17" t="n">
-        <v>3844</v>
+        <v>3611</v>
       </c>
       <c r="N17" t="n">
-        <v>-13.33000000000054</v>
+        <v>-12.02799999999976</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.869</v>
+        <v>-3.073000000000008</v>
       </c>
       <c r="P17" t="n">
-        <v>5.878000000000014</v>
+        <v>6.502999999999986</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.003467741935484011</v>
+        <v>-0.003330933259484842</v>
       </c>
       <c r="R17" t="n">
-        <v>0.377714961090272</v>
+        <v>0.4076010898476121</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.05299999999999727</v>
+        <v>-0.05599999999999739</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1951092611862643</v>
+        <v>0.2027139296593741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1610,54 +1610,54 @@
         <v>2024</v>
       </c>
       <c r="G18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>-34.72099999999944</v>
+        <v>-31.91699999999847</v>
       </c>
       <c r="L18" t="n">
-        <v>-21.82699999999967</v>
+        <v>-24.18099999999924</v>
       </c>
       <c r="M18" t="n">
-        <v>3196</v>
+        <v>3705</v>
       </c>
       <c r="N18" t="n">
-        <v>-12.89399999999976</v>
+        <v>-7.735999999999223</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.869</v>
+        <v>-3.016999999999996</v>
       </c>
       <c r="P18" t="n">
-        <v>5.884999999999991</v>
+        <v>3.976999999999975</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.004034418022528087</v>
+        <v>-0.002087989203778468</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4144423761765246</v>
+        <v>0.392588270523505</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.05800000000000693</v>
+        <v>-0.0549999999999784</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1821026282853567</v>
+        <v>0.2472334682860999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1676,54 +1676,54 @@
         <v>2024</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H19" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J19" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>-35.08099999999982</v>
+        <v>-34.52300000000119</v>
       </c>
       <c r="L19" t="n">
-        <v>-19.96599999999995</v>
+        <v>-21.19300000000065</v>
       </c>
       <c r="M19" t="n">
-        <v>6240</v>
+        <v>3844</v>
       </c>
       <c r="N19" t="n">
-        <v>-15.11499999999987</v>
+        <v>-13.33000000000054</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.731000000000023</v>
+        <v>-3.869</v>
       </c>
       <c r="P19" t="n">
-        <v>5.945000000000022</v>
+        <v>5.878000000000014</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.00242227564102562</v>
+        <v>-0.003467741935484011</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3146190717440346</v>
+        <v>0.377714961090272</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.04099999999999682</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2421474358974359</v>
+        <v>0.1951092611862643</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1742,54 +1742,54 @@
         <v>2024</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="K20" t="n">
-        <v>-35.24500000000035</v>
+        <v>-34.72099999999944</v>
       </c>
       <c r="L20" t="n">
-        <v>-23.4760000000002</v>
+        <v>-21.82699999999967</v>
       </c>
       <c r="M20" t="n">
-        <v>4047</v>
+        <v>3196</v>
       </c>
       <c r="N20" t="n">
-        <v>-11.76900000000015</v>
+        <v>-12.89399999999976</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.731000000000023</v>
+        <v>-3.869</v>
       </c>
       <c r="P20" t="n">
-        <v>5.967000000000013</v>
+        <v>5.884999999999991</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.002908080059303224</v>
+        <v>-0.004034418022528087</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3526465745958676</v>
+        <v>0.4144423761765246</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.04500000000000171</v>
+        <v>-0.05800000000000693</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2184334074623178</v>
+        <v>0.1821026282853567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1808,54 +1808,54 @@
         <v>2024</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="I21" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="K21" t="n">
-        <v>-36.23500000000067</v>
+        <v>-35.08099999999982</v>
       </c>
       <c r="L21" t="n">
-        <v>-22.83000000000031</v>
+        <v>-19.96599999999995</v>
       </c>
       <c r="M21" t="n">
-        <v>3070</v>
+        <v>6240</v>
       </c>
       <c r="N21" t="n">
-        <v>-13.40500000000036</v>
+        <v>-15.11499999999987</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.062999999999988</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P21" t="n">
-        <v>6.543999999999997</v>
+        <v>5.945000000000022</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.004366449511400768</v>
+        <v>-0.00242227564102562</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4066030672709002</v>
+        <v>0.3146190717440346</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.05299999999999727</v>
+        <v>-0.04099999999999682</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1775244299674267</v>
+        <v>0.2421474358974359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1874,54 +1874,54 @@
         <v>2024</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H22" t="n">
         <v>1.4</v>
       </c>
       <c r="I22" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K22" t="n">
-        <v>-36.26299999999935</v>
+        <v>-35.24500000000035</v>
       </c>
       <c r="L22" t="n">
-        <v>-20.78799999999953</v>
+        <v>-23.4760000000002</v>
       </c>
       <c r="M22" t="n">
-        <v>3362</v>
+        <v>4047</v>
       </c>
       <c r="N22" t="n">
-        <v>-15.47499999999982</v>
+        <v>-11.76900000000015</v>
       </c>
       <c r="O22" t="n">
         <v>-2.731000000000023</v>
       </c>
       <c r="P22" t="n">
-        <v>6.543999999999997</v>
+        <v>5.967000000000013</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.004602914931588288</v>
+        <v>-0.002908080059303224</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3734513447135549</v>
+        <v>0.3526465745958676</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.04799999999998761</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2082093991671624</v>
+        <v>0.2184334074623178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1940,54 +1940,54 @@
         <v>2024</v>
       </c>
       <c r="G23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="J23" t="n">
         <v>0.35</v>
       </c>
       <c r="K23" t="n">
-        <v>-39.01899999999989</v>
+        <v>-36.23500000000067</v>
       </c>
       <c r="L23" t="n">
-        <v>-24.23600000000003</v>
+        <v>-22.83000000000031</v>
       </c>
       <c r="M23" t="n">
-        <v>4589</v>
+        <v>3070</v>
       </c>
       <c r="N23" t="n">
-        <v>-14.78299999999986</v>
+        <v>-13.40500000000036</v>
       </c>
       <c r="O23" t="n">
-        <v>-2.731000000000023</v>
+        <v>-4.062999999999988</v>
       </c>
       <c r="P23" t="n">
-        <v>6.747000000000014</v>
+        <v>6.543999999999997</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.003221398997602933</v>
+        <v>-0.004366449511400768</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3492134863762194</v>
+        <v>0.4066030672709002</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.04500000000000171</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2187840488123774</v>
+        <v>0.1775244299674267</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2006,54 +2006,54 @@
         <v>2024</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I24" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K24" t="n">
-        <v>-43.61799999999999</v>
+        <v>-36.26299999999935</v>
       </c>
       <c r="L24" t="n">
-        <v>-27.38800000000005</v>
+        <v>-20.78799999999953</v>
       </c>
       <c r="M24" t="n">
-        <v>3031</v>
+        <v>3362</v>
       </c>
       <c r="N24" t="n">
-        <v>-16.22999999999995</v>
+        <v>-15.47499999999982</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.456000000000017</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P24" t="n">
-        <v>6.158999999999992</v>
+        <v>6.543999999999997</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.005354668426261942</v>
+        <v>-0.004602914931588288</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4096569807506567</v>
+        <v>0.3734513447135549</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.05800000000000693</v>
+        <v>-0.04799999999998761</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1689211481359287</v>
+        <v>0.2082093991671624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2072,54 +2072,54 @@
         <v>2024</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H25" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J25" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="K25" t="n">
-        <v>-44.35200000000063</v>
+        <v>-37.11999999999904</v>
       </c>
       <c r="L25" t="n">
-        <v>-23.71900000000062</v>
+        <v>-21.90299999999954</v>
       </c>
       <c r="M25" t="n">
-        <v>7017</v>
+        <v>4090</v>
       </c>
       <c r="N25" t="n">
-        <v>-20.63300000000001</v>
+        <v>-15.2169999999995</v>
       </c>
       <c r="O25" t="n">
-        <v>-2.731000000000023</v>
+        <v>-3.456999999999994</v>
       </c>
       <c r="P25" t="n">
-        <v>5.301000000000016</v>
+        <v>6.697000000000003</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.002940430383354711</v>
+        <v>-0.003720537897310392</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2850299922713644</v>
+        <v>0.3817369668718021</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.03899999999998727</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T25" t="n">
-        <v>0.25167450477412</v>
+        <v>0.1946210268948655</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2138,54 +2138,54 @@
         <v>2024</v>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J26" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="K26" t="n">
-        <v>-47.41899999999956</v>
+        <v>-39.01899999999989</v>
       </c>
       <c r="L26" t="n">
-        <v>-31.16099999999985</v>
+        <v>-24.23600000000003</v>
       </c>
       <c r="M26" t="n">
-        <v>3649</v>
+        <v>4589</v>
       </c>
       <c r="N26" t="n">
-        <v>-16.25799999999971</v>
+        <v>-14.78299999999986</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.016999999999996</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P26" t="n">
-        <v>3.976999999999975</v>
+        <v>6.747000000000014</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.004455467251301647</v>
+        <v>-0.003221398997602933</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3917832092371089</v>
+        <v>0.3492134863762194</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.05400000000000205</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2474650589202521</v>
+        <v>0.2187840488123774</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2204,54 +2204,54 @@
         <v>2024</v>
       </c>
       <c r="G27" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>70</v>
       </c>
       <c r="J27" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K27" t="n">
-        <v>-49.0329999999999</v>
+        <v>-43.61799999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>-27.29499999999992</v>
+        <v>-27.38800000000005</v>
       </c>
       <c r="M27" t="n">
-        <v>3714</v>
+        <v>3031</v>
       </c>
       <c r="N27" t="n">
-        <v>-21.73799999999999</v>
+        <v>-16.22999999999995</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.731000000000023</v>
+        <v>-2.456000000000017</v>
       </c>
       <c r="P27" t="n">
-        <v>7.247</v>
+        <v>6.158999999999992</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.005852988691437799</v>
+        <v>-0.005354668426261942</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3700149910845629</v>
+        <v>0.4096569807506567</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.04600000000000648</v>
+        <v>-0.05800000000000693</v>
       </c>
       <c r="T27" t="n">
-        <v>0.215670436187399</v>
+        <v>0.1689211481359287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2270,120 +2270,120 @@
         <v>2024</v>
       </c>
       <c r="G28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="I28" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="K28" t="n">
-        <v>-50.35199999999961</v>
+        <v>-44.35200000000063</v>
       </c>
       <c r="L28" t="n">
-        <v>-28.81899999999987</v>
+        <v>-23.71900000000062</v>
       </c>
       <c r="M28" t="n">
-        <v>3386</v>
+        <v>7017</v>
       </c>
       <c r="N28" t="n">
-        <v>-21.53299999999973</v>
+        <v>-20.63300000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.593999999999994</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P28" t="n">
-        <v>5.981999999999999</v>
+        <v>5.301000000000016</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.006359421145894782</v>
+        <v>-0.002940430383354711</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4011244125268426</v>
+        <v>0.2850299922713644</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.05699999999998795</v>
+        <v>-0.03899999999998727</v>
       </c>
       <c r="T28" t="n">
-        <v>0.180153573538098</v>
+        <v>0.25167450477412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
         <v>20</v>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G29" t="n">
-        <v>55</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10</v>
-      </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="K29" t="n">
-        <v>-54.51700000000068</v>
+        <v>-47.41899999999956</v>
       </c>
       <c r="L29" t="n">
-        <v>-30.94400000000053</v>
+        <v>-31.16099999999985</v>
       </c>
       <c r="M29" t="n">
-        <v>5535</v>
+        <v>3649</v>
       </c>
       <c r="N29" t="n">
-        <v>-23.57300000000015</v>
+        <v>-16.25799999999971</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.818000000000012</v>
+        <v>-3.016999999999996</v>
       </c>
       <c r="P29" t="n">
-        <v>4.38300000000001</v>
+        <v>3.976999999999975</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.004258897922312583</v>
+        <v>-0.004455467251301647</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3283781574232348</v>
+        <v>0.3917832092371089</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.04699999999999704</v>
+        <v>-0.05400000000000205</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2973803071364047</v>
+        <v>0.2474650589202521</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2402,54 +2402,54 @@
         <v>2024</v>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="I30" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J30" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="K30" t="n">
-        <v>-55.13799999999824</v>
+        <v>-49.0329999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>-33.0109999999992</v>
+        <v>-27.29499999999992</v>
       </c>
       <c r="M30" t="n">
-        <v>3238</v>
+        <v>3714</v>
       </c>
       <c r="N30" t="n">
-        <v>-22.12699999999904</v>
+        <v>-21.73799999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>-4.062999999999988</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P30" t="n">
-        <v>6.744</v>
+        <v>7.247</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.006833539221741521</v>
+        <v>-0.005852988691437799</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3951839796702668</v>
+        <v>0.3700149910845629</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.05400000000000205</v>
+        <v>-0.04600000000000648</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1757257566399012</v>
+        <v>0.215670436187399</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2468,54 +2468,54 @@
         <v>2024</v>
       </c>
       <c r="G31" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H31" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K31" t="n">
-        <v>-55.97399999999951</v>
+        <v>-50.35199999999961</v>
       </c>
       <c r="L31" t="n">
-        <v>-29.78999999999969</v>
+        <v>-28.81899999999987</v>
       </c>
       <c r="M31" t="n">
-        <v>3521</v>
+        <v>3386</v>
       </c>
       <c r="N31" t="n">
-        <v>-26.18399999999981</v>
+        <v>-21.53299999999973</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.169000000000011</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="P31" t="n">
-        <v>7.661000000000001</v>
+        <v>5.981999999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.007436523714853682</v>
+        <v>-0.006359421145894782</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3799579978218517</v>
+        <v>0.4011244125268426</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.04699999999999704</v>
+        <v>-0.05699999999998795</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2121556376029537</v>
+        <v>0.180153573538098</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>2024</v>
       </c>
       <c r="G32" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H32" t="n">
         <v>2.8</v>
       </c>
       <c r="I32" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>-60.43200000000215</v>
+        <v>-54.51700000000068</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.98200000000115</v>
+        <v>-30.94400000000053</v>
       </c>
       <c r="M32" t="n">
-        <v>3577</v>
+        <v>5535</v>
       </c>
       <c r="N32" t="n">
-        <v>-25.450000000001</v>
+        <v>-23.57300000000015</v>
       </c>
       <c r="O32" t="n">
-        <v>-3.724999999999994</v>
+        <v>-2.818000000000012</v>
       </c>
       <c r="P32" t="n">
-        <v>6.031000000000006</v>
+        <v>4.38300000000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.007114900754822756</v>
+        <v>-0.004258897922312583</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3775548096207536</v>
+        <v>0.3283781574232348</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.05299999999999727</v>
+        <v>-0.04699999999999704</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1766843723790886</v>
+        <v>0.2973803071364047</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2600,54 +2600,54 @@
         <v>2024</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="K33" t="n">
-        <v>-64.71800000000002</v>
+        <v>-55.13799999999824</v>
       </c>
       <c r="L33" t="n">
-        <v>-36.914</v>
+        <v>-33.0109999999992</v>
       </c>
       <c r="M33" t="n">
-        <v>3107</v>
+        <v>3238</v>
       </c>
       <c r="N33" t="n">
-        <v>-27.80400000000002</v>
+        <v>-22.12699999999904</v>
       </c>
       <c r="O33" t="n">
-        <v>-2.436999999999983</v>
+        <v>-4.062999999999988</v>
       </c>
       <c r="P33" t="n">
-        <v>6.180000000000007</v>
+        <v>6.744</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.008948825233344067</v>
+        <v>-0.006833539221741521</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3956195138802711</v>
+        <v>0.3951839796702668</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.05500000000000682</v>
+        <v>-0.05400000000000205</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1557772771161892</v>
+        <v>0.1757257566399012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B34" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2666,54 +2666,54 @@
         <v>2024</v>
       </c>
       <c r="G34" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="I34" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>-65.00099999999958</v>
+        <v>-55.97399999999951</v>
       </c>
       <c r="L34" t="n">
-        <v>-36.15599999999984</v>
+        <v>-29.78999999999969</v>
       </c>
       <c r="M34" t="n">
-        <v>3900</v>
+        <v>3521</v>
       </c>
       <c r="N34" t="n">
-        <v>-28.84499999999974</v>
+        <v>-26.18399999999981</v>
       </c>
       <c r="O34" t="n">
-        <v>-3.677999999999997</v>
+        <v>-1.169000000000011</v>
       </c>
       <c r="P34" t="n">
-        <v>5.613</v>
+        <v>7.661000000000001</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.007396153846153781</v>
+        <v>-0.007436523714853682</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3636362824068071</v>
+        <v>0.3799579978218517</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.05299999999999727</v>
+        <v>-0.04699999999999704</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1871794871794872</v>
+        <v>0.2121556376029537</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2732,54 +2732,54 @@
         <v>2024</v>
       </c>
       <c r="G35" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="H35" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J35" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="K35" t="n">
-        <v>-65.01400000000228</v>
+        <v>-60.43200000000215</v>
       </c>
       <c r="L35" t="n">
-        <v>-32.51200000000115</v>
+        <v>-34.98200000000115</v>
       </c>
       <c r="M35" t="n">
-        <v>10787</v>
+        <v>3577</v>
       </c>
       <c r="N35" t="n">
-        <v>-32.50200000000113</v>
+        <v>-25.450000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>-2.540999999999997</v>
+        <v>-3.724999999999994</v>
       </c>
       <c r="P35" t="n">
-        <v>4.318999999999988</v>
+        <v>6.031000000000006</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.003013071289515262</v>
+        <v>-0.007114900754822756</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2306826301764192</v>
+        <v>0.3775548096207536</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.03199999999998226</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3343839807175303</v>
+        <v>0.1766843723790886</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2798,54 +2798,54 @@
         <v>2024</v>
       </c>
       <c r="G36" t="n">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I36" t="n">
         <v>75</v>
       </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
       <c r="J36" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K36" t="n">
-        <v>-67.31899999999979</v>
+        <v>-64.71800000000002</v>
       </c>
       <c r="L36" t="n">
-        <v>-37.79899999999996</v>
+        <v>-36.914</v>
       </c>
       <c r="M36" t="n">
-        <v>4064</v>
+        <v>3107</v>
       </c>
       <c r="N36" t="n">
-        <v>-29.51999999999983</v>
+        <v>-27.80400000000002</v>
       </c>
       <c r="O36" t="n">
-        <v>-3.558999999999997</v>
+        <v>-2.436999999999983</v>
       </c>
       <c r="P36" t="n">
-        <v>6.697000000000003</v>
+        <v>6.180000000000007</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.007263779527559012</v>
+        <v>-0.008948825233344067</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3815684107390237</v>
+        <v>0.3956195138802711</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.05299999999999727</v>
+        <v>-0.05500000000000682</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1931594488188976</v>
+        <v>0.1557772771161892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2864,54 +2864,54 @@
         <v>2024</v>
       </c>
       <c r="G37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I37" t="n">
         <v>55</v>
       </c>
       <c r="J37" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K37" t="n">
-        <v>-75.51099999999849</v>
+        <v>-65.00099999999958</v>
       </c>
       <c r="L37" t="n">
-        <v>-41.26699999999929</v>
+        <v>-36.15599999999984</v>
       </c>
       <c r="M37" t="n">
-        <v>3780</v>
+        <v>3900</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.2439999999992</v>
+        <v>-28.84499999999974</v>
       </c>
       <c r="O37" t="n">
         <v>-3.677999999999997</v>
       </c>
       <c r="P37" t="n">
-        <v>5.89500000000001</v>
+        <v>5.613</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.009059259259259048</v>
+        <v>-0.007396153846153781</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3708179364472355</v>
+        <v>0.3636362824068071</v>
       </c>
       <c r="S37" t="n">
         <v>-0.05299999999999727</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1841269841269841</v>
+        <v>0.1871794871794872</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2930,54 +2930,54 @@
         <v>2024</v>
       </c>
       <c r="G38" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H38" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="I38" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="K38" t="n">
-        <v>-85.49699999999834</v>
+        <v>-65.01400000000228</v>
       </c>
       <c r="L38" t="n">
-        <v>-46.87299999999921</v>
+        <v>-32.51200000000115</v>
       </c>
       <c r="M38" t="n">
-        <v>3550</v>
+        <v>10787</v>
       </c>
       <c r="N38" t="n">
-        <v>-38.62399999999913</v>
+        <v>-32.50200000000113</v>
       </c>
       <c r="O38" t="n">
-        <v>-3.724999999999994</v>
+        <v>-2.540999999999997</v>
       </c>
       <c r="P38" t="n">
-        <v>6.031000000000006</v>
+        <v>4.318999999999988</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.01087999999999975</v>
+        <v>-0.003013071289515262</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3694810395104824</v>
+        <v>0.2306826301764192</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.05400000000000205</v>
+        <v>-0.03199999999998226</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1777464788732394</v>
+        <v>0.3343839807175303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B39" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2996,54 +2996,54 @@
         <v>2024</v>
       </c>
       <c r="G39" t="n">
+        <v>75</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
         <v>45</v>
       </c>
-      <c r="H39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I39" t="n">
-        <v>70</v>
-      </c>
       <c r="J39" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="K39" t="n">
-        <v>-91.15899999999868</v>
+        <v>-67.31899999999979</v>
       </c>
       <c r="L39" t="n">
-        <v>-46.17299999999938</v>
+        <v>-37.79899999999996</v>
       </c>
       <c r="M39" t="n">
-        <v>3735</v>
+        <v>4064</v>
       </c>
       <c r="N39" t="n">
-        <v>-44.98599999999931</v>
+        <v>-29.51999999999983</v>
       </c>
       <c r="O39" t="n">
-        <v>-1.169000000000011</v>
+        <v>-3.558999999999997</v>
       </c>
       <c r="P39" t="n">
-        <v>7.247</v>
+        <v>6.697000000000003</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.01204444444444426</v>
+        <v>-0.007263779527559012</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3561782222473355</v>
+        <v>0.3815684107390237</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.04699999999999704</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2066934404283802</v>
+        <v>0.1931594488188976</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3062,54 +3062,54 @@
         <v>2024</v>
       </c>
       <c r="G40" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K40" t="n">
-        <v>-100.7999999999998</v>
+        <v>-69.72600000000142</v>
       </c>
       <c r="L40" t="n">
-        <v>-50.39999999999991</v>
+        <v>-36.90300000000072</v>
       </c>
       <c r="M40" t="n">
-        <v>6264</v>
+        <v>4055</v>
       </c>
       <c r="N40" t="n">
-        <v>-50.39999999999991</v>
+        <v>-32.8230000000007</v>
       </c>
       <c r="O40" t="n">
-        <v>-2.731000000000023</v>
+        <v>-3.330000000000013</v>
       </c>
       <c r="P40" t="n">
-        <v>5.945000000000022</v>
+        <v>5.094000000000008</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.008045977011494237</v>
+        <v>-0.008094451294698077</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3104411814379696</v>
+        <v>0.3615666284895164</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.04200000000000159</v>
+        <v>-0.05400000000000205</v>
       </c>
       <c r="T40" t="n">
-        <v>0.239463601532567</v>
+        <v>0.206905055487053</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3128,54 +3128,54 @@
         <v>2024</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K41" t="n">
-        <v>-102.2210000000009</v>
+        <v>-75.51099999999849</v>
       </c>
       <c r="L41" t="n">
-        <v>-53.75400000000046</v>
+        <v>-41.26699999999929</v>
       </c>
       <c r="M41" t="n">
-        <v>3026</v>
+        <v>3780</v>
       </c>
       <c r="N41" t="n">
-        <v>-48.46700000000043</v>
+        <v>-34.2439999999992</v>
       </c>
       <c r="O41" t="n">
-        <v>-2.426999999999992</v>
+        <v>-3.677999999999997</v>
       </c>
       <c r="P41" t="n">
-        <v>6.543999999999997</v>
+        <v>5.89500000000001</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.01601685393258441</v>
+        <v>-0.009059259259259048</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3665638636585277</v>
+        <v>0.3708179364472355</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.05400000000000205</v>
+        <v>-0.05299999999999727</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1675479180436219</v>
+        <v>0.1841269841269841</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3194,120 +3194,120 @@
         <v>2024</v>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J42" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K42" t="n">
-        <v>-110.5359999999991</v>
+        <v>-85.49699999999834</v>
       </c>
       <c r="L42" t="n">
-        <v>-59.68499999999946</v>
+        <v>-46.87299999999921</v>
       </c>
       <c r="M42" t="n">
-        <v>3405</v>
+        <v>3550</v>
       </c>
       <c r="N42" t="n">
-        <v>-50.8509999999996</v>
+        <v>-38.62399999999913</v>
       </c>
       <c r="O42" t="n">
-        <v>-3.945999999999998</v>
+        <v>-3.724999999999994</v>
       </c>
       <c r="P42" t="n">
-        <v>3.994999999999976</v>
+        <v>6.031000000000006</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.01493421439060194</v>
+        <v>-0.01087999999999975</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3831696415860648</v>
+        <v>0.3694810395104824</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.0589999999999975</v>
+        <v>-0.05400000000000205</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2657856093979442</v>
+        <v>0.1777464788732394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B43" t="n">
+        <v>97</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="n">
+        <v>40</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I43" t="n">
         <v>75</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G43" t="n">
-        <v>95</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
       <c r="J43" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="K43" t="n">
-        <v>-112.4430000000015</v>
+        <v>-86.47499999999897</v>
       </c>
       <c r="L43" t="n">
-        <v>-60.18500000000084</v>
+        <v>-44.65399999999947</v>
       </c>
       <c r="M43" t="n">
-        <v>3577</v>
+        <v>3582</v>
       </c>
       <c r="N43" t="n">
-        <v>-52.25800000000065</v>
+        <v>-41.8209999999995</v>
       </c>
       <c r="O43" t="n">
-        <v>-3.724999999999994</v>
+        <v>-1.169000000000011</v>
       </c>
       <c r="P43" t="n">
-        <v>6.031000000000006</v>
+        <v>7.675999999999988</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0146094492591559</v>
+        <v>-0.01167532104969277</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3547051338932611</v>
+        <v>0.369215510340562</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.05400000000000205</v>
+        <v>-0.04800000000000182</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1713726586525021</v>
+        <v>0.2029592406476829</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3326,54 +3326,54 @@
         <v>2024</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H44" t="n">
-        <v>2.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I44" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J44" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K44" t="n">
-        <v>-115.0550000000011</v>
+        <v>-91.15899999999868</v>
       </c>
       <c r="L44" t="n">
-        <v>-62.20800000000052</v>
+        <v>-46.17299999999938</v>
       </c>
       <c r="M44" t="n">
-        <v>4409</v>
+        <v>3735</v>
       </c>
       <c r="N44" t="n">
-        <v>-52.84700000000059</v>
+        <v>-44.98599999999931</v>
       </c>
       <c r="O44" t="n">
-        <v>-3.765999999999991</v>
+        <v>-1.169000000000011</v>
       </c>
       <c r="P44" t="n">
-        <v>6.679000000000002</v>
+        <v>7.247</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.01198616466318906</v>
+        <v>-0.01204444444444426</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3651502976661782</v>
+        <v>0.3561782222473355</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.05000000000001137</v>
+        <v>-0.04699999999999704</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1998185529598548</v>
+        <v>0.2066934404283802</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B45" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3392,54 +3392,54 @@
         <v>2024</v>
       </c>
       <c r="G45" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J45" t="n">
         <v>0.15</v>
       </c>
       <c r="K45" t="n">
-        <v>-115.5959999999993</v>
+        <v>-95.25600000000006</v>
       </c>
       <c r="L45" t="n">
-        <v>-57.79799999999967</v>
+        <v>-51.553</v>
       </c>
       <c r="M45" t="n">
-        <v>3294</v>
+        <v>2718</v>
       </c>
       <c r="N45" t="n">
-        <v>-57.79799999999967</v>
+        <v>-43.70300000000006</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.169000000000011</v>
+        <v>-4.062999999999988</v>
       </c>
       <c r="P45" t="n">
-        <v>7.894999999999982</v>
+        <v>6.619</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0175464480874316</v>
+        <v>-0.01607910228108906</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3493413111381357</v>
+        <v>0.4117725230520141</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.04800000000000182</v>
+        <v>-0.06100000000000705</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1964177292046144</v>
+        <v>0.1479028697571744</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3458,54 +3458,54 @@
         <v>2024</v>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I46" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K46" t="n">
-        <v>-119.7460000000032</v>
+        <v>-100.7999999999998</v>
       </c>
       <c r="L46" t="n">
-        <v>-63.16400000000152</v>
+        <v>-50.39999999999991</v>
       </c>
       <c r="M46" t="n">
-        <v>5573</v>
+        <v>6264</v>
       </c>
       <c r="N46" t="n">
-        <v>-56.58200000000164</v>
+        <v>-50.39999999999991</v>
       </c>
       <c r="O46" t="n">
-        <v>-3.945999999999998</v>
+        <v>-2.731000000000023</v>
       </c>
       <c r="P46" t="n">
-        <v>4.38300000000001</v>
+        <v>5.945000000000022</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.01015287995693552</v>
+        <v>-0.008045977011494237</v>
       </c>
       <c r="R46" t="n">
-        <v>0.320644192154991</v>
+        <v>0.3104411814379696</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.04900000000000659</v>
+        <v>-0.04200000000000159</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2546204916561995</v>
+        <v>0.239463601532567</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3524,54 +3524,54 @@
         <v>2024</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K47" t="n">
-        <v>-122.2680000000015</v>
+        <v>-102.2210000000009</v>
       </c>
       <c r="L47" t="n">
-        <v>-63.71400000000075</v>
+        <v>-53.75400000000046</v>
       </c>
       <c r="M47" t="n">
-        <v>5903</v>
+        <v>3026</v>
       </c>
       <c r="N47" t="n">
-        <v>-58.55400000000073</v>
+        <v>-48.46700000000043</v>
       </c>
       <c r="O47" t="n">
-        <v>-2.478999999999985</v>
+        <v>-2.426999999999992</v>
       </c>
       <c r="P47" t="n">
-        <v>4.444999999999993</v>
+        <v>6.543999999999997</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.009919363035744659</v>
+        <v>-0.01601685393258441</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3082553980297861</v>
+        <v>0.3665638636585277</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.04500000000000171</v>
+        <v>-0.05400000000000205</v>
       </c>
       <c r="T47" t="n">
-        <v>0.2978146705065221</v>
+        <v>0.1675479180436219</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3590,54 +3590,54 @@
         <v>2024</v>
       </c>
       <c r="G48" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K48" t="n">
-        <v>-128.4250000000024</v>
+        <v>-110.5359999999991</v>
       </c>
       <c r="L48" t="n">
-        <v>-64.57700000000106</v>
+        <v>-59.68499999999946</v>
       </c>
       <c r="M48" t="n">
-        <v>9139</v>
+        <v>3405</v>
       </c>
       <c r="N48" t="n">
-        <v>-63.84800000000136</v>
+        <v>-50.8509999999996</v>
       </c>
       <c r="O48" t="n">
-        <v>-2.75</v>
+        <v>-3.945999999999998</v>
       </c>
       <c r="P48" t="n">
-        <v>4.579000000000008</v>
+        <v>3.994999999999976</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.006986322354743556</v>
+        <v>-0.01493421439060194</v>
       </c>
       <c r="R48" t="n">
-        <v>0.253629883214722</v>
+        <v>0.3831696415860648</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.03700000000000614</v>
+        <v>-0.0589999999999975</v>
       </c>
       <c r="T48" t="n">
-        <v>0.2873399715504978</v>
+        <v>0.2657856093979442</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3656,54 +3656,54 @@
         <v>2024</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="H49" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K49" t="n">
-        <v>-137.2600000000026</v>
+        <v>-112.4430000000015</v>
       </c>
       <c r="L49" t="n">
-        <v>-68.63000000000129</v>
+        <v>-60.18500000000084</v>
       </c>
       <c r="M49" t="n">
-        <v>11539</v>
+        <v>3577</v>
       </c>
       <c r="N49" t="n">
-        <v>-68.63000000000129</v>
+        <v>-52.25800000000065</v>
       </c>
       <c r="O49" t="n">
-        <v>-2.344999999999999</v>
+        <v>-3.724999999999994</v>
       </c>
       <c r="P49" t="n">
-        <v>4.271999999999991</v>
+        <v>6.031000000000006</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.005947655776063895</v>
+        <v>-0.0146094492591559</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2246271167305519</v>
+        <v>0.3547051338932611</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.05400000000000205</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3300112661409134</v>
+        <v>0.1713726586525021</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3722,54 +3722,54 @@
         <v>2024</v>
       </c>
       <c r="G50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>1.6</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K50" t="n">
-        <v>-155.0320000000002</v>
+        <v>-115.0550000000011</v>
       </c>
       <c r="L50" t="n">
-        <v>-77.5160000000001</v>
+        <v>-62.20800000000052</v>
       </c>
       <c r="M50" t="n">
-        <v>6240</v>
+        <v>4409</v>
       </c>
       <c r="N50" t="n">
-        <v>-77.5160000000001</v>
+        <v>-52.84700000000059</v>
       </c>
       <c r="O50" t="n">
-        <v>-2.242000000000019</v>
+        <v>-3.765999999999991</v>
       </c>
       <c r="P50" t="n">
-        <v>5.054000000000002</v>
+        <v>6.679000000000002</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.01242243589743591</v>
+        <v>-0.01198616466318906</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2998592325882687</v>
+        <v>0.3651502976661782</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.04299999999997794</v>
+        <v>-0.05000000000001137</v>
       </c>
       <c r="T50" t="n">
-        <v>0.2354166666666667</v>
+        <v>0.1998185529598548</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B51" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3788,54 +3788,54 @@
         <v>2024</v>
       </c>
       <c r="G51" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H51" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J51" t="n">
         <v>0.15</v>
       </c>
       <c r="K51" t="n">
-        <v>-155.6690000000009</v>
+        <v>-115.5959999999993</v>
       </c>
       <c r="L51" t="n">
-        <v>-78.62700000000041</v>
+        <v>-57.79799999999967</v>
       </c>
       <c r="M51" t="n">
-        <v>3163</v>
+        <v>3294</v>
       </c>
       <c r="N51" t="n">
-        <v>-77.04200000000048</v>
+        <v>-57.79799999999967</v>
       </c>
       <c r="O51" t="n">
-        <v>-2.456000000000017</v>
+        <v>-1.169000000000011</v>
       </c>
       <c r="P51" t="n">
-        <v>6.381999999999991</v>
+        <v>7.894999999999982</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.02435725576983891</v>
+        <v>-0.0175464480874316</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3601139693402625</v>
+        <v>0.3493413111381357</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.05599999999999739</v>
+        <v>-0.04800000000000182</v>
       </c>
       <c r="T51" t="n">
-        <v>0.159026240910528</v>
+        <v>0.1964177292046144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3854,54 +3854,54 @@
         <v>2024</v>
       </c>
       <c r="G52" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K52" t="n">
-        <v>-157.1190000000047</v>
+        <v>-119.7460000000032</v>
       </c>
       <c r="L52" t="n">
-        <v>-79.64900000000226</v>
+        <v>-63.16400000000152</v>
       </c>
       <c r="M52" t="n">
-        <v>9047</v>
+        <v>5573</v>
       </c>
       <c r="N52" t="n">
-        <v>-77.47000000000249</v>
+        <v>-56.58200000000164</v>
       </c>
       <c r="O52" t="n">
-        <v>-3.536000000000001</v>
+        <v>-3.945999999999998</v>
       </c>
       <c r="P52" t="n">
-        <v>4.548000000000002</v>
+        <v>4.38300000000001</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.008563059577760858</v>
+        <v>-0.01015287995693552</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2526874068602856</v>
+        <v>0.320644192154991</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.0379999999999967</v>
+        <v>-0.04900000000000659</v>
       </c>
       <c r="T52" t="n">
-        <v>0.2865038134188129</v>
+        <v>0.2546204916561995</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>2024</v>
       </c>
       <c r="G53" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="I53" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J53" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K53" t="n">
-        <v>-165.1990000000002</v>
+        <v>-122.2680000000015</v>
       </c>
       <c r="L53" t="n">
-        <v>-83.87600000000005</v>
+        <v>-63.71400000000075</v>
       </c>
       <c r="M53" t="n">
-        <v>3497</v>
+        <v>5903</v>
       </c>
       <c r="N53" t="n">
-        <v>-81.32300000000016</v>
+        <v>-58.55400000000073</v>
       </c>
       <c r="O53" t="n">
-        <v>-3.073000000000008</v>
+        <v>-2.478999999999985</v>
       </c>
       <c r="P53" t="n">
-        <v>6.481999999999999</v>
+        <v>4.444999999999993</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.0232550757792394</v>
+        <v>-0.009919363035744659</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3705780036038953</v>
+        <v>0.3082553980297861</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.06199999999999761</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1767229053474407</v>
+        <v>0.2978146705065221</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B54" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3986,54 +3986,54 @@
         <v>2024</v>
       </c>
       <c r="G54" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K54" t="n">
-        <v>-168.0779999999999</v>
+        <v>-128.4250000000024</v>
       </c>
       <c r="L54" t="n">
-        <v>-87.04499999999993</v>
+        <v>-64.57700000000106</v>
       </c>
       <c r="M54" t="n">
-        <v>2738</v>
+        <v>9139</v>
       </c>
       <c r="N54" t="n">
-        <v>-81.03299999999993</v>
+        <v>-63.84800000000136</v>
       </c>
       <c r="O54" t="n">
-        <v>-2.593999999999994</v>
+        <v>-2.75</v>
       </c>
       <c r="P54" t="n">
-        <v>6.619</v>
+        <v>4.579000000000008</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.02959569028487945</v>
+        <v>-0.006986322354743556</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3822586193828155</v>
+        <v>0.253629883214722</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.07099999999999795</v>
+        <v>-0.03700000000000614</v>
       </c>
       <c r="T54" t="n">
-        <v>0.127100073046019</v>
+        <v>0.2873399715504978</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4052,54 +4052,54 @@
         <v>2024</v>
       </c>
       <c r="G55" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
         <v>1.4</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K55" t="n">
-        <v>-180.6400000000027</v>
+        <v>-137.2600000000026</v>
       </c>
       <c r="L55" t="n">
-        <v>-90.32000000000137</v>
+        <v>-68.63000000000129</v>
       </c>
       <c r="M55" t="n">
-        <v>7743</v>
+        <v>11539</v>
       </c>
       <c r="N55" t="n">
-        <v>-90.32000000000137</v>
+        <v>-68.63000000000129</v>
       </c>
       <c r="O55" t="n">
-        <v>-3.945999999999998</v>
+        <v>-2.344999999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>5.501000000000005</v>
+        <v>4.271999999999991</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.01166472943303647</v>
+        <v>-0.005947655776063895</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2763145892738757</v>
+        <v>0.2246271167305519</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.03999999999999204</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2601059021051272</v>
+        <v>0.3300112661409134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B56" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4118,54 +4118,54 @@
         <v>2024</v>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H56" t="n">
-        <v>3.600000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K56" t="n">
-        <v>-196.8610000000006</v>
+        <v>-152.0749999999985</v>
       </c>
       <c r="L56" t="n">
-        <v>-98.7270000000003</v>
+        <v>-78.50999999999929</v>
       </c>
       <c r="M56" t="n">
-        <v>3247</v>
+        <v>3476</v>
       </c>
       <c r="N56" t="n">
-        <v>-98.13400000000031</v>
+        <v>-73.56499999999922</v>
       </c>
       <c r="O56" t="n">
-        <v>-2.436999999999983</v>
+        <v>-3.863</v>
       </c>
       <c r="P56" t="n">
-        <v>5.933999999999997</v>
+        <v>6.121000000000009</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.030222975053896</v>
+        <v>-0.02116369390103545</v>
       </c>
       <c r="R56" t="n">
-        <v>0.3414541119288869</v>
+        <v>0.3553782526982244</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.06700000000000728</v>
+        <v>-0.05699999999998795</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1299661225746843</v>
+        <v>0.1645569620253164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4184,54 +4184,54 @@
         <v>2024</v>
       </c>
       <c r="G57" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H57" t="n">
-        <v>3.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I57" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K57" t="n">
-        <v>-211.0530000000008</v>
+        <v>-155.0320000000002</v>
       </c>
       <c r="L57" t="n">
-        <v>-107.3030000000004</v>
+        <v>-77.5160000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>3243</v>
+        <v>6240</v>
       </c>
       <c r="N57" t="n">
-        <v>-103.7500000000005</v>
+        <v>-77.5160000000001</v>
       </c>
       <c r="O57" t="n">
-        <v>-2.426999999999992</v>
+        <v>-2.242000000000019</v>
       </c>
       <c r="P57" t="n">
-        <v>5.884999999999991</v>
+        <v>5.054000000000002</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.03199198273203838</v>
+        <v>-0.01242243589743591</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3442958106620736</v>
+        <v>0.2998592325882687</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.07599999999999341</v>
+        <v>-0.04299999999997794</v>
       </c>
       <c r="T57" t="n">
-        <v>0.139377119950663</v>
+        <v>0.2354166666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4250,54 +4250,54 @@
         <v>2024</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I58" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K58" t="n">
-        <v>-228.2010000000014</v>
+        <v>-155.6690000000009</v>
       </c>
       <c r="L58" t="n">
-        <v>-116.1020000000006</v>
+        <v>-78.62700000000041</v>
       </c>
       <c r="M58" t="n">
-        <v>3592</v>
+        <v>3163</v>
       </c>
       <c r="N58" t="n">
-        <v>-112.0990000000007</v>
+        <v>-77.04200000000048</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.863</v>
+        <v>-2.456000000000017</v>
       </c>
       <c r="P58" t="n">
-        <v>5.806000000000012</v>
+        <v>6.381999999999991</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.03120796213808484</v>
+        <v>-0.02435725576983891</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3266085615296145</v>
+        <v>0.3601139693402625</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.06499999999999773</v>
+        <v>-0.05599999999999739</v>
       </c>
       <c r="T58" t="n">
-        <v>0.1489420935412027</v>
+        <v>0.159026240910528</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4316,54 +4316,54 @@
         <v>2024</v>
       </c>
       <c r="G59" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H59" t="n">
         <v>1.6</v>
       </c>
       <c r="I59" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="K59" t="n">
-        <v>-266.5920000000003</v>
+        <v>-157.1190000000047</v>
       </c>
       <c r="L59" t="n">
-        <v>-133.4130000000002</v>
+        <v>-79.64900000000226</v>
       </c>
       <c r="M59" t="n">
-        <v>3192</v>
+        <v>9047</v>
       </c>
       <c r="N59" t="n">
-        <v>-133.1790000000001</v>
+        <v>-77.47000000000249</v>
       </c>
       <c r="O59" t="n">
-        <v>-1.157999999999987</v>
+        <v>-3.536000000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>5.554000000000002</v>
+        <v>4.548000000000002</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.04172274436090229</v>
+        <v>-0.008563059577760858</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2548095618122773</v>
+        <v>0.2526874068602856</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.0660000000000025</v>
+        <v>-0.0379999999999967</v>
       </c>
       <c r="T59" t="n">
-        <v>0.1334586466165414</v>
+        <v>0.2865038134188129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4382,54 +4382,54 @@
         <v>2024</v>
       </c>
       <c r="G60" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I60" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="J60" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="K60" t="n">
-        <v>-279.0569999999997</v>
+        <v>-165.1990000000002</v>
       </c>
       <c r="L60" t="n">
-        <v>-140.1889999999999</v>
+        <v>-83.87600000000005</v>
       </c>
       <c r="M60" t="n">
-        <v>3116</v>
+        <v>3497</v>
       </c>
       <c r="N60" t="n">
-        <v>-138.8679999999998</v>
+        <v>-81.32300000000016</v>
       </c>
       <c r="O60" t="n">
-        <v>-2.296999999999997</v>
+        <v>-3.073000000000008</v>
       </c>
       <c r="P60" t="n">
-        <v>5.632000000000005</v>
+        <v>6.481999999999999</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.04456611039794602</v>
+        <v>-0.0232550757792394</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2720103881797206</v>
+        <v>0.3705780036038953</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.07200000000000273</v>
+        <v>-0.06199999999999761</v>
       </c>
       <c r="T60" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.1767229053474407</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4448,54 +4448,54 @@
         <v>2024</v>
       </c>
       <c r="G61" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K61" t="n">
-        <v>-294.0020000000041</v>
+        <v>-168.0779999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>-147.0010000000021</v>
+        <v>-87.04499999999993</v>
       </c>
       <c r="M61" t="n">
-        <v>7665</v>
+        <v>2738</v>
       </c>
       <c r="N61" t="n">
-        <v>-147.0010000000021</v>
+        <v>-81.03299999999993</v>
       </c>
       <c r="O61" t="n">
-        <v>-2.296999999999997</v>
+        <v>-2.593999999999994</v>
       </c>
       <c r="P61" t="n">
-        <v>5.007999999999996</v>
+        <v>6.619</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.01917821265492525</v>
+        <v>-0.02959569028487945</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2546851908786698</v>
+        <v>0.3822586193828155</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.04200000000000159</v>
+        <v>-0.07099999999999795</v>
       </c>
       <c r="T61" t="n">
-        <v>0.2499673842139596</v>
+        <v>0.127100073046019</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4514,54 +4514,54 @@
         <v>2024</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I62" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J62" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K62" t="n">
-        <v>-294.8200000000004</v>
+        <v>-176.4710000000022</v>
       </c>
       <c r="L62" t="n">
-        <v>-147.4100000000002</v>
+        <v>-90.64100000000101</v>
       </c>
       <c r="M62" t="n">
-        <v>3558</v>
+        <v>3458</v>
       </c>
       <c r="N62" t="n">
-        <v>-147.4100000000002</v>
+        <v>-85.83000000000118</v>
       </c>
       <c r="O62" t="n">
-        <v>-1.655000000000001</v>
+        <v>-3.863</v>
       </c>
       <c r="P62" t="n">
-        <v>7.675999999999988</v>
+        <v>7.521000000000001</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.0414305789769534</v>
+        <v>-0.02482070561017963</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2694325185558903</v>
+        <v>0.3693564428164906</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.06399999999999295</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1371557054525014</v>
+        <v>0.1506651243493349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B63" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4580,54 +4580,54 @@
         <v>2024</v>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H63" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I63" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J63" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="K63" t="n">
-        <v>-304.104000000001</v>
+        <v>-180.6400000000027</v>
       </c>
       <c r="L63" t="n">
-        <v>-155.5210000000005</v>
+        <v>-90.32000000000137</v>
       </c>
       <c r="M63" t="n">
-        <v>5335</v>
+        <v>7743</v>
       </c>
       <c r="N63" t="n">
-        <v>-148.5830000000005</v>
+        <v>-90.32000000000137</v>
       </c>
       <c r="O63" t="n">
-        <v>-2.895999999999987</v>
+        <v>-3.945999999999998</v>
       </c>
       <c r="P63" t="n">
-        <v>3.907000000000011</v>
+        <v>5.501000000000005</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.02785060918462989</v>
+        <v>-0.01166472943303647</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2997414361958171</v>
+        <v>0.2763145892738757</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.0549999999999784</v>
+        <v>-0.03999999999999204</v>
       </c>
       <c r="T63" t="n">
-        <v>0.2208059981255858</v>
+        <v>0.2601059021051272</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4646,54 +4646,54 @@
         <v>2024</v>
       </c>
       <c r="G64" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J64" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K64" t="n">
-        <v>-307.8169999999992</v>
+        <v>-196.8610000000006</v>
       </c>
       <c r="L64" t="n">
-        <v>-154.3689999999996</v>
+        <v>-98.7270000000003</v>
       </c>
       <c r="M64" t="n">
-        <v>3147</v>
+        <v>3247</v>
       </c>
       <c r="N64" t="n">
-        <v>-153.4479999999996</v>
+        <v>-98.13400000000031</v>
       </c>
       <c r="O64" t="n">
-        <v>-2.593999999999994</v>
+        <v>-2.436999999999983</v>
       </c>
       <c r="P64" t="n">
-        <v>5.576999999999998</v>
+        <v>5.933999999999997</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.04876008897362555</v>
+        <v>-0.030222975053896</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2658128995639057</v>
+        <v>0.3414541119288869</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.07200000000000273</v>
+        <v>-0.06700000000000728</v>
       </c>
       <c r="T64" t="n">
-        <v>0.09374006990784875</v>
+        <v>0.1299661225746843</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4715,108 +4715,834 @@
         <v>75</v>
       </c>
       <c r="H65" t="n">
-        <v>1.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J65" t="n">
         <v>0.1</v>
       </c>
       <c r="K65" t="n">
-        <v>-402.1420000000002</v>
+        <v>-211.0530000000008</v>
       </c>
       <c r="L65" t="n">
-        <v>-201.0710000000001</v>
+        <v>-107.3030000000004</v>
       </c>
       <c r="M65" t="n">
-        <v>6811</v>
+        <v>3243</v>
       </c>
       <c r="N65" t="n">
-        <v>-201.0710000000001</v>
+        <v>-103.7500000000005</v>
       </c>
       <c r="O65" t="n">
-        <v>-2.296999999999997</v>
+        <v>-2.426999999999992</v>
       </c>
       <c r="P65" t="n">
-        <v>5.007999999999996</v>
+        <v>5.884999999999991</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.02952150932315374</v>
+        <v>-0.03199198273203838</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2439460400868789</v>
+        <v>0.3442958106620736</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.04800000000000182</v>
+        <v>-0.07599999999999341</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2189105858170606</v>
+        <v>0.139377119950663</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B66" t="n">
+        <v>66</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-228.2010000000014</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-116.1020000000006</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3592</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-112.0990000000007</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-3.863</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5.806000000000012</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.03120796213808484</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.3266085615296145</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.06499999999999773</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.1489420935412027</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B67" t="n">
+        <v>59</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G67" t="n">
+        <v>75</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-266.5920000000003</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-133.4130000000002</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3192</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-133.1790000000001</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-1.157999999999987</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5.554000000000002</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.04172274436090229</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2548095618122773</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.0660000000000025</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.1334586466165414</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="n">
+        <v>53</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G68" t="n">
+        <v>85</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-279.0569999999997</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-140.1889999999999</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3116</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-138.8679999999998</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-2.296999999999997</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5.632000000000005</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-0.04456611039794602</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2720103881797206</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-0.07200000000000273</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B69" t="n">
+        <v>16</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G69" t="n">
+        <v>95</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-294.0020000000041</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-147.0010000000021</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7665</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-147.0010000000021</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-2.296999999999997</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5.007999999999996</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-0.01917821265492525</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2546851908786698</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.04200000000000159</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.2499673842139596</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>85</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-294.8200000000004</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-147.4100000000002</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3558</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-147.4100000000002</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-1.655000000000001</v>
+      </c>
+      <c r="P70" t="n">
+        <v>7.675999999999988</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-0.0414305789769534</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.2694325185558903</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-0.06399999999999295</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.1371557054525014</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B71" t="n">
+        <v>58</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G71" t="n">
+        <v>50</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-304.104000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-155.5210000000005</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5335</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-148.5830000000005</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-2.895999999999987</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.907000000000011</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-0.02785060918462989</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2997414361958171</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-0.0549999999999784</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.2208059981255858</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>70</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>60</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-307.8169999999992</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-154.3689999999996</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3147</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-153.4479999999996</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-2.593999999999994</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5.576999999999998</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-0.04876008897362555</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2658128995639057</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-0.07200000000000273</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.09374006990784875</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" t="n">
+        <v>87</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G73" t="n">
+        <v>20</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-395.5839999999994</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-197.7919999999997</v>
+      </c>
+      <c r="M73" t="n">
+        <v>6984</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-197.7919999999997</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-2.242000000000019</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4.271000000000015</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-0.02832073310423822</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2442604477130679</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-0.04700000000001125</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.2219358533791523</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G74" t="n">
+        <v>75</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-402.1420000000002</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-201.0710000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>6811</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-201.0710000000001</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-2.296999999999997</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5.007999999999996</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-0.02952150932315374</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2439460400868789</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-0.04800000000000182</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.2189105858170606</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B75" t="n">
+        <v>94</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G75" t="n">
+        <v>10</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>20</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-405.348</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-204.3280000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4129</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-201.0199999999999</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-2.588999999999999</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4.401999999999987</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-0.04868491160087186</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2546634328909959</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-0.07200000000000273</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.1273916202470332</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-453.5880000000034</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-226.7940000000017</v>
+      </c>
+      <c r="M76" t="n">
+        <v>8038</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-226.7940000000017</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-1.968000000000018</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4.747000000000014</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-0.02821522766857448</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.2317576204410812</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-0.04499999999998749</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.233018163722319</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B77" t="n">
         <v>65</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G77" t="n">
         <v>55</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H77" t="n">
         <v>1.4</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I77" t="n">
         <v>15</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J77" t="n">
         <v>0.05</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K77" t="n">
         <v>-664.2780000000026</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L77" t="n">
         <v>-332.1390000000013</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M77" t="n">
         <v>7744</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N77" t="n">
         <v>-332.1390000000013</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O77" t="n">
         <v>-2.296999999999997</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P77" t="n">
         <v>5.007999999999996</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q77" t="n">
         <v>-0.04288985020661174</v>
       </c>
-      <c r="R66" t="n">
+      <c r="R77" t="n">
         <v>0.1991614695175</v>
       </c>
-      <c r="S66" t="n">
+      <c r="S77" t="n">
         <v>-0.06299999999999528</v>
       </c>
-      <c r="T66" t="n">
+      <c r="T77" t="n">
         <v>0.1753615702479339</v>
       </c>
     </row>
